--- a/bin/Debug/net6.0-windows/All_Employees.xlsx
+++ b/bin/Debug/net6.0-windows/All_Employees.xlsx
@@ -142,33 +142,39 @@
     <x:t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;&lt;Fid&gt;&lt;Bytes&gt;Rk1SACAyMAABuAAz/v8AAAFlAYgAxQDFAQAAAFZEgNsA9H9jQTMAkD5fgJUAy5JaQIQAJ1ZZgMUA1zNXQN0AvYlXQSAAkJhWgHgAvYxWQSMBO1xWgIwBNDZVgMcApodVQPgA9ZJVQIgAsZFSgLYA5DhSQMAAGKBSQLoAIUtSQS4Ab5hRQJkBU6VRQRQAYphQQOAAaJFQgLQBZ0tQQSkAzJdQQTsA755PQJ8BDJ1PQFcA7Y9PQJIBDpZPgNgAkY1OQO4Am49NQIQAy41NQMYBECdNQFcAfnhLgEgAxodKQPkA0ZJKgGkBTTdKQK0Ax5RJgKABBp5JgJkAfkdIQLoAqjdIgHwBBZNIQIMAhU9HQO4Af5RGQP4BFX9GQSUArT1FgKUAe0ZDgMoAEklCQJABKZZAgK8A8jxAQMUBISNAQQ0BVgRAgNYBKSM/QFEBCY8+QM0BUxc9QUsBCUQ9QM0BV1w9gMUBGiQ8QMwBYQs8QJ8Adpg7QL4Azjs7gSgAGkA7QH4A4TE6gR8AGp45QL8AsDI4QRUBW2Q4AE0A/y81AHQBI5A1APcBWxszAQUBYQ8zALEA+DcyAAA=&lt;/Bytes&gt;&lt;Format&gt;1769473&lt;/Format&gt;&lt;Version&gt;1.0.0&lt;/Version&gt;&lt;/Fid&gt;</x:t>
   </x:si>
   <x:si>
+    <x:t>8/13/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5:36 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4:13 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4:14 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10:42 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5:17 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8/10/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11:37 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11:38 AM</x:t>
+  </x:si>
+  <x:si>
     <x:t>9/6/2024</x:t>
   </x:si>
   <x:si>
     <x:t>5:07 PM</x:t>
   </x:si>
   <x:si>
-    <x:t>4:13 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4:14 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10:42 AM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5:17 PM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8/10/2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11:37 AM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11:38 AM</x:t>
-  </x:si>
-  <x:si>
     <x:t>8/8/2024</x:t>
   </x:si>
   <x:si>
@@ -214,18 +220,18 @@
     <x:t>Wednesday, August 7, 2024 10:43:02 AM</x:t>
   </x:si>
   <x:si>
+    <x:t>10:58 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2:33 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;&lt;Fid&gt;&lt;Bytes&gt;Rk1SACAyMAABXgAz/v8AAAFlAYgAxQDFAQAAAFY1gRoAy4NjQJgAf3ZgQL4AM1pdQTMAlZJbQSoAZJpZgJIA2y1YgQEA6i1YgH0A34xXgQwAhJRVQTUBCX5VgN0AaFVSgPUA2zpQgQEAqDlQgK0AXgVOQJ8Ajh1NgQQA/ChNgOIA+j1NgJMAxYNMQK8Anx1LgMYA55RLQPgA9T9LQNIAG6pKQUYAsjpKQSoAt4tIQMoA2ZRHQPgA5TxGQK0BH5VBQNgBKUVAQSAAH6BAQMYBBptAgOEAlVQ/QUEAwIw/QLYBEzU/gJ4AJ1w8QNoAk6I8QLwAkGU7QUsA+os5QMEAg244gM0AtpU3QLEAewI2AOUBHEM0APgBMhQ0ALkAq4IzALAA5zgxAMwBPZsxAMAAsIMvAOwBJwsvAUABGSEtAPgBNgAsANsBNEkrAPUBLRIrAOsA+Z0qAUcAWp8pAAA=&lt;/Bytes&gt;&lt;Format&gt;1769473&lt;/Format&gt;&lt;Version&gt;1.0.0&lt;/Version&gt;&lt;/Fid&gt;</x:t>
+  </x:si>
+  <x:si>
     <x:t>10:45 AM</x:t>
   </x:si>
   <x:si>
-    <x:t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;&lt;Fid&gt;&lt;Bytes&gt;Rk1SACAyMAABXgAz/v8AAAFlAYgAxQDFAQAAAFY1gRoAy4NjQJgAf3ZgQL4AM1pdQTMAlZJbQSoAZJpZgJIA2y1YgQEA6i1YgH0A34xXgQwAhJRVQTUBCX5VgN0AaFVSgPUA2zpQgQEAqDlQgK0AXgVOQJ8Ajh1NgQQA/ChNgOIA+j1NgJMAxYNMQK8Anx1LgMYA55RLQPgA9T9LQNIAG6pKQUYAsjpKQSoAt4tIQMoA2ZRHQPgA5TxGQK0BH5VBQNgBKUVAQSAAH6BAQMYBBptAgOEAlVQ/QUEAwIw/QLYBEzU/gJ4AJ1w8QNoAk6I8QLwAkGU7QUsA+os5QMEAg244gM0AtpU3QLEAewI2AOUBHEM0APgBMhQ0ALkAq4IzALAA5zgxAMwBPZsxAMAAsIMvAOwBJwsvAUABGSEtAPgBNgAsANsBNEkrAPUBLRIrAOsA+Z0qAUcAWp8pAAA=&lt;/Bytes&gt;&lt;Format&gt;1769473&lt;/Format&gt;&lt;Version&gt;1.0.0&lt;/Version&gt;&lt;/Fid&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10:58 AM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2:33 PM</x:t>
-  </x:si>
-  <x:si>
     <x:t>12:38 PM</x:t>
   </x:si>
   <x:si>
@@ -275,6 +281,18 @@
   </x:si>
   <x:si>
     <x:t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;&lt;Fid&gt;&lt;Bytes&gt;Rk1SACAyMAABuAAz/v8AAAFlAYgAxQDFAQAAAFZEQNAAgYNkQP4AcotjgIYA53djQHoAL3piQGEAyyNfgEoAkH5eQH4BCB5dgPsAwIlcgPEAloVcQIYAXH9bQKUAR4FagRUAnJBaQGIBJRJaQL4AQYdZQGkAMhxXQSYArTNVgLkA+nRVgPwBJx5VgM0ApilUQRMA8odUQTAAl41UQPkA4YJTgMQAYoVSQGkA/xtSgSoAZ5JRQH8BIRdRQSIAOzdQQPwBSgtQgL8BGxxPQKUBGRlPQS0A/I9OQJkAOxpOQJgBExtOQKkA9CBNgFMA4iJMgLAAPYJLgO0BNhBLQRMBGXZLgN0BLxtLQTYAyS9KgRMBMhVKgRkAPJBIQSYA6JREQH4BQQpDQFcAVHxCQTUBW3xBQKoAIHNAgE0ATnpAgS0A7Tc/QHYBXmM/gN4ADzw+gMEAM4s+gMUBNhA9QS4BCDQ8gUEBCY08gToBJos6QP8BZ1o6gUAAsI84QRkBUR04QMsAJ004QDoAnCA3gToAvYk2QSoBU442QTwAtow2QUABJ4M2QKkBNQ82QTUBQCc2QK8AM3c1AAA=&lt;/Bytes&gt;&lt;Format&gt;1769473&lt;/Format&gt;&lt;Version&gt;1.0.0&lt;/Version&gt;&lt;/Fid&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Left Thumb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tuesday, August 13, 2024 5:36:53 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;&lt;Fid&gt;&lt;Bytes&gt;Rk1SACAyMAABuAAz/v8AAAFlAYgAxQDFAQAAAFZEgJsAvoJgQMAAtolfQQkA0o9cQIoAPwVaQFAAoI1agLMBDH9agLYAMqVZgGcAtjNZQE0AWn9ZQNQA5INZQRUBDItYQSIA85RWQHIAxzNVQDwBD5tVgPkAYpRUgKkAsoNTQHwALw9SgMwBBSlSgK8An4lRQE0A8ptRgFsBBT9RQQ0AhjpRgRIA8jVRgHQA2DVQQRQAOZZQQM0AV5ZQgI4AzXtQgNEAYD9OQUAAm5dOQH8A0yJOQM0AZ5RNgHQAujJMgHgAfiBMgFUBEJpMQSUALJlLQGAA+JhLQFsAQRlLgPIA+IlLQQ0BFINKQPIBLStKQLMAFl5IQHQAqitIgR8BFo9IQTAA5D5HgGkAiyhHgNEAmY1GQGUAvDVGQHcA5ylGgSUBIJlFQI8Aon5EQTQBQDxDQQ8AkT9BQOYBZCJBgIkAlXxBQRIAvpZBgQkA6o9BgPIAepJAQJUAhY9AgQgAj5lAgIIBThk/gJAAl34/QQ4Ajjw+gSIA4Zs+gQgAP5s9QUAAUz89QTkAqjw9QIoAe3w8QQkBLyk8AAA=&lt;/Bytes&gt;&lt;Format&gt;1769473&lt;/Format&gt;&lt;Version&gt;1.0.0&lt;/Version&gt;&lt;/Fid&gt;</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -625,7 +643,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G25"/>
+  <x:dimension ref="A1:G29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -920,85 +938,88 @@
       <x:c r="E13" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
       <x:c r="G13" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
+      <x:c r="E14" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
+      <x:c r="D16" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
         <x:v>64</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="E16" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
-        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>68</x:v>
@@ -1007,18 +1028,18 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
         <x:v>48</x:v>
@@ -1027,156 +1048,236 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7">
       <x:c r="A19" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
         <x:v>70</x:v>
-      </x:c>
-      <x:c r="F19" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="B20" s="0" t="s">
+      <x:c r="F20" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="C20" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="E20" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7">
       <x:c r="A21" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="F21" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="G21" s="0" t="s">
-        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7">
       <x:c r="A23" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F24" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7">
       <x:c r="A25" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="B25" s="0" t="s">
+      <x:c r="D25" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="C25" s="0" t="s">
+    </x:row>
+    <x:row r="26" spans="1:7">
+      <x:c r="A26" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:7">
+      <x:c r="A27" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:7">
+      <x:c r="A28" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D25" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="E25" s="0" t="s">
+      <x:c r="B28" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="G25" s="0" t="s">
+      <x:c r="C28" s="0" t="s">
         <x:v>86</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:7">
+      <x:c r="A29" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>92</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
